--- a/back-end/data/Requisicao.xlsx
+++ b/back-end/data/Requisicao.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6437FD3-95D9-41B1-B2B6-8A37F5BE362A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1DBA4ED-937D-44A3-A53D-5850915B34ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>AVALIAÇÃO AUDIOMETRICA</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Resp:</t>
   </si>
   <si>
-    <t>Dra. Milena Zaia Miguel  -                                      CRFa 15158</t>
-  </si>
-  <si>
     <t>Função:</t>
   </si>
   <si>
@@ -57,6 +54,12 @@
   </si>
   <si>
     <t>obs.:</t>
+  </si>
+  <si>
+    <t>CRFa 15158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dra. Milena Zaia Miguel                              </t>
   </si>
 </sst>
 </file>
@@ -99,7 +102,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -239,11 +242,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -254,7 +270,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -267,6 +282,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -309,59 +330,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -725,7 +749,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="F5" sqref="F5:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,270 +767,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="4" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
+      <c r="F5" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="34"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="37"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B9" s="5">
+        <v>250</v>
+      </c>
+      <c r="C9" s="5">
+        <v>500</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="42">
+        <v>3000</v>
+      </c>
+      <c r="G9" s="42">
+        <v>4000</v>
+      </c>
+      <c r="H9" s="42">
+        <v>6000</v>
+      </c>
+      <c r="I9" s="42">
+        <v>8000</v>
+      </c>
+      <c r="J9" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="6">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5">
         <v>250</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C11" s="5">
         <v>500</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D11" s="5">
         <v>1000</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E11" s="5">
         <v>2000</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F11" s="5">
         <v>3000</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G11" s="5">
         <v>4000</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H11" s="5">
         <v>6000</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I11" s="5">
         <v>8000</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="J11" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="6">
-        <v>250</v>
-      </c>
-      <c r="C11" s="6">
-        <v>500</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E11" s="6">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="6">
-        <v>3000</v>
-      </c>
-      <c r="G11" s="6">
-        <v>4000</v>
-      </c>
-      <c r="H11" s="6">
-        <v>6000</v>
-      </c>
-      <c r="I11" s="6">
-        <v>8000</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="12"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="12"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="F5:J8"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="A1:J2"/>
@@ -1016,6 +1041,8 @@
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="G4:J4"/>
+    <mergeCell ref="F5:J6"/>
+    <mergeCell ref="F7:J8"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
